--- a/codigo/datasets/datasets_aumentados/logs/pcsmote/por_muestras/log_pcsmote_x_muestra_wdbc_D50_R75_PPproporcion.xlsx
+++ b/codigo/datasets/datasets_aumentados/logs/pcsmote/por_muestras/log_pcsmote_x_muestra_wdbc_D50_R75_PPproporcion.xlsx
@@ -661,7 +661,7 @@
       </c>
       <c r="Z2" t="inlineStr">
         <is>
-          <t>2025-11-12T07:21:27.502779</t>
+          <t>2025-11-13T06:51:48.419701</t>
         </is>
       </c>
     </row>
@@ -747,7 +747,7 @@
       <c r="Y3" t="inlineStr"/>
       <c r="Z3" t="inlineStr">
         <is>
-          <t>2025-11-12T07:21:27.502779</t>
+          <t>2025-11-13T06:51:48.419701</t>
         </is>
       </c>
     </row>
@@ -833,7 +833,7 @@
       <c r="Y4" t="inlineStr"/>
       <c r="Z4" t="inlineStr">
         <is>
-          <t>2025-11-12T07:21:27.502779</t>
+          <t>2025-11-13T06:51:48.419701</t>
         </is>
       </c>
     </row>
@@ -919,7 +919,7 @@
       <c r="Y5" t="inlineStr"/>
       <c r="Z5" t="inlineStr">
         <is>
-          <t>2025-11-12T07:21:27.503782</t>
+          <t>2025-11-13T06:51:48.420717</t>
         </is>
       </c>
     </row>
@@ -1009,7 +1009,7 @@
       </c>
       <c r="Z6" t="inlineStr">
         <is>
-          <t>2025-11-12T07:21:27.503782</t>
+          <t>2025-11-13T06:51:48.420717</t>
         </is>
       </c>
     </row>
@@ -1099,7 +1099,7 @@
       </c>
       <c r="Z7" t="inlineStr">
         <is>
-          <t>2025-11-12T07:21:27.503782</t>
+          <t>2025-11-13T06:51:48.420717</t>
         </is>
       </c>
     </row>
@@ -1185,7 +1185,7 @@
       <c r="Y8" t="inlineStr"/>
       <c r="Z8" t="inlineStr">
         <is>
-          <t>2025-11-12T07:21:27.504783</t>
+          <t>2025-11-13T06:51:48.420717</t>
         </is>
       </c>
     </row>
@@ -1271,7 +1271,7 @@
       <c r="Y9" t="inlineStr"/>
       <c r="Z9" t="inlineStr">
         <is>
-          <t>2025-11-12T07:21:27.504783</t>
+          <t>2025-11-13T06:51:48.420717</t>
         </is>
       </c>
     </row>
@@ -1357,7 +1357,7 @@
       <c r="Y10" t="inlineStr"/>
       <c r="Z10" t="inlineStr">
         <is>
-          <t>2025-11-12T07:21:27.504783</t>
+          <t>2025-11-13T06:51:48.420717</t>
         </is>
       </c>
     </row>
@@ -1443,7 +1443,7 @@
       <c r="Y11" t="inlineStr"/>
       <c r="Z11" t="inlineStr">
         <is>
-          <t>2025-11-12T07:21:27.504783</t>
+          <t>2025-11-13T06:51:48.420717</t>
         </is>
       </c>
     </row>
@@ -1529,7 +1529,7 @@
       <c r="Y12" t="inlineStr"/>
       <c r="Z12" t="inlineStr">
         <is>
-          <t>2025-11-12T07:21:27.504783</t>
+          <t>2025-11-13T06:51:48.420717</t>
         </is>
       </c>
     </row>
@@ -1615,7 +1615,7 @@
       <c r="Y13" t="inlineStr"/>
       <c r="Z13" t="inlineStr">
         <is>
-          <t>2025-11-12T07:21:27.505780</t>
+          <t>2025-11-13T06:51:48.420717</t>
         </is>
       </c>
     </row>
@@ -1701,7 +1701,7 @@
       <c r="Y14" t="inlineStr"/>
       <c r="Z14" t="inlineStr">
         <is>
-          <t>2025-11-12T07:21:27.505780</t>
+          <t>2025-11-13T06:51:48.421715</t>
         </is>
       </c>
     </row>
@@ -1787,7 +1787,7 @@
       <c r="Y15" t="inlineStr"/>
       <c r="Z15" t="inlineStr">
         <is>
-          <t>2025-11-12T07:21:27.505780</t>
+          <t>2025-11-13T06:51:48.421715</t>
         </is>
       </c>
     </row>
@@ -1873,7 +1873,7 @@
       <c r="Y16" t="inlineStr"/>
       <c r="Z16" t="inlineStr">
         <is>
-          <t>2025-11-12T07:21:27.505780</t>
+          <t>2025-11-13T06:51:48.421715</t>
         </is>
       </c>
     </row>
@@ -1959,7 +1959,7 @@
       <c r="Y17" t="inlineStr"/>
       <c r="Z17" t="inlineStr">
         <is>
-          <t>2025-11-12T07:21:27.505780</t>
+          <t>2025-11-13T06:51:48.421715</t>
         </is>
       </c>
     </row>
@@ -2045,7 +2045,7 @@
       <c r="Y18" t="inlineStr"/>
       <c r="Z18" t="inlineStr">
         <is>
-          <t>2025-11-12T07:21:27.506779</t>
+          <t>2025-11-13T06:51:48.421715</t>
         </is>
       </c>
     </row>
@@ -2135,7 +2135,7 @@
       </c>
       <c r="Z19" t="inlineStr">
         <is>
-          <t>2025-11-12T07:21:27.506779</t>
+          <t>2025-11-13T06:51:48.421715</t>
         </is>
       </c>
     </row>
@@ -2225,7 +2225,7 @@
       </c>
       <c r="Z20" t="inlineStr">
         <is>
-          <t>2025-11-12T07:21:27.506779</t>
+          <t>2025-11-13T06:51:48.421715</t>
         </is>
       </c>
     </row>
@@ -2311,7 +2311,7 @@
       <c r="Y21" t="inlineStr"/>
       <c r="Z21" t="inlineStr">
         <is>
-          <t>2025-11-12T07:21:27.506779</t>
+          <t>2025-11-13T06:51:48.421715</t>
         </is>
       </c>
     </row>
@@ -2397,7 +2397,7 @@
       <c r="Y22" t="inlineStr"/>
       <c r="Z22" t="inlineStr">
         <is>
-          <t>2025-11-12T07:21:27.506779</t>
+          <t>2025-11-13T06:51:48.421715</t>
         </is>
       </c>
     </row>
@@ -2483,7 +2483,7 @@
       <c r="Y23" t="inlineStr"/>
       <c r="Z23" t="inlineStr">
         <is>
-          <t>2025-11-12T07:21:27.506779</t>
+          <t>2025-11-13T06:51:48.422714</t>
         </is>
       </c>
     </row>
@@ -2573,7 +2573,7 @@
       </c>
       <c r="Z24" t="inlineStr">
         <is>
-          <t>2025-11-12T07:21:27.507779</t>
+          <t>2025-11-13T06:51:48.422714</t>
         </is>
       </c>
     </row>
@@ -2659,7 +2659,7 @@
       <c r="Y25" t="inlineStr"/>
       <c r="Z25" t="inlineStr">
         <is>
-          <t>2025-11-12T07:21:27.507779</t>
+          <t>2025-11-13T06:51:48.422714</t>
         </is>
       </c>
     </row>
@@ -2745,7 +2745,7 @@
       <c r="Y26" t="inlineStr"/>
       <c r="Z26" t="inlineStr">
         <is>
-          <t>2025-11-12T07:21:27.507779</t>
+          <t>2025-11-13T06:51:48.422714</t>
         </is>
       </c>
     </row>
@@ -2835,7 +2835,7 @@
       </c>
       <c r="Z27" t="inlineStr">
         <is>
-          <t>2025-11-12T07:21:27.507779</t>
+          <t>2025-11-13T06:51:48.422714</t>
         </is>
       </c>
     </row>
@@ -2921,7 +2921,7 @@
       <c r="Y28" t="inlineStr"/>
       <c r="Z28" t="inlineStr">
         <is>
-          <t>2025-11-12T07:21:27.507779</t>
+          <t>2025-11-13T06:51:48.422714</t>
         </is>
       </c>
     </row>
@@ -3011,7 +3011,7 @@
       </c>
       <c r="Z29" t="inlineStr">
         <is>
-          <t>2025-11-12T07:21:27.507779</t>
+          <t>2025-11-13T06:51:48.422714</t>
         </is>
       </c>
     </row>
@@ -3097,7 +3097,7 @@
       <c r="Y30" t="inlineStr"/>
       <c r="Z30" t="inlineStr">
         <is>
-          <t>2025-11-12T07:21:27.508778</t>
+          <t>2025-11-13T06:51:48.422714</t>
         </is>
       </c>
     </row>
@@ -3183,7 +3183,7 @@
       <c r="Y31" t="inlineStr"/>
       <c r="Z31" t="inlineStr">
         <is>
-          <t>2025-11-12T07:21:27.509088</t>
+          <t>2025-11-13T06:51:48.422714</t>
         </is>
       </c>
     </row>
@@ -3269,7 +3269,7 @@
       <c r="Y32" t="inlineStr"/>
       <c r="Z32" t="inlineStr">
         <is>
-          <t>2025-11-12T07:21:27.509088</t>
+          <t>2025-11-13T06:51:48.423713</t>
         </is>
       </c>
     </row>
@@ -3355,7 +3355,7 @@
       <c r="Y33" t="inlineStr"/>
       <c r="Z33" t="inlineStr">
         <is>
-          <t>2025-11-12T07:21:27.509088</t>
+          <t>2025-11-13T06:51:48.423713</t>
         </is>
       </c>
     </row>
@@ -3441,7 +3441,7 @@
       <c r="Y34" t="inlineStr"/>
       <c r="Z34" t="inlineStr">
         <is>
-          <t>2025-11-12T07:21:27.509088</t>
+          <t>2025-11-13T06:51:48.423713</t>
         </is>
       </c>
     </row>
@@ -3531,7 +3531,7 @@
       </c>
       <c r="Z35" t="inlineStr">
         <is>
-          <t>2025-11-12T07:21:27.509088</t>
+          <t>2025-11-13T06:51:48.423713</t>
         </is>
       </c>
     </row>
@@ -3617,7 +3617,7 @@
       <c r="Y36" t="inlineStr"/>
       <c r="Z36" t="inlineStr">
         <is>
-          <t>2025-11-12T07:21:27.509088</t>
+          <t>2025-11-13T06:51:48.423713</t>
         </is>
       </c>
     </row>
@@ -3703,7 +3703,7 @@
       <c r="Y37" t="inlineStr"/>
       <c r="Z37" t="inlineStr">
         <is>
-          <t>2025-11-12T07:21:27.509088</t>
+          <t>2025-11-13T06:51:48.423713</t>
         </is>
       </c>
     </row>
@@ -3789,7 +3789,7 @@
       <c r="Y38" t="inlineStr"/>
       <c r="Z38" t="inlineStr">
         <is>
-          <t>2025-11-12T07:21:27.509088</t>
+          <t>2025-11-13T06:51:48.423713</t>
         </is>
       </c>
     </row>
@@ -3875,7 +3875,7 @@
       <c r="Y39" t="inlineStr"/>
       <c r="Z39" t="inlineStr">
         <is>
-          <t>2025-11-12T07:21:27.509088</t>
+          <t>2025-11-13T06:51:48.423713</t>
         </is>
       </c>
     </row>
@@ -3961,7 +3961,7 @@
       <c r="Y40" t="inlineStr"/>
       <c r="Z40" t="inlineStr">
         <is>
-          <t>2025-11-12T07:21:27.509088</t>
+          <t>2025-11-13T06:51:48.423713</t>
         </is>
       </c>
     </row>
@@ -4047,7 +4047,7 @@
       <c r="Y41" t="inlineStr"/>
       <c r="Z41" t="inlineStr">
         <is>
-          <t>2025-11-12T07:21:27.509088</t>
+          <t>2025-11-13T06:51:48.424714</t>
         </is>
       </c>
     </row>
@@ -4133,7 +4133,7 @@
       <c r="Y42" t="inlineStr"/>
       <c r="Z42" t="inlineStr">
         <is>
-          <t>2025-11-12T07:21:27.509088</t>
+          <t>2025-11-13T06:51:48.424714</t>
         </is>
       </c>
     </row>
@@ -4219,7 +4219,7 @@
       <c r="Y43" t="inlineStr"/>
       <c r="Z43" t="inlineStr">
         <is>
-          <t>2025-11-12T07:21:27.509088</t>
+          <t>2025-11-13T06:51:48.424714</t>
         </is>
       </c>
     </row>
@@ -4305,7 +4305,7 @@
       <c r="Y44" t="inlineStr"/>
       <c r="Z44" t="inlineStr">
         <is>
-          <t>2025-11-12T07:21:27.509088</t>
+          <t>2025-11-13T06:51:48.424714</t>
         </is>
       </c>
     </row>
@@ -4391,7 +4391,7 @@
       <c r="Y45" t="inlineStr"/>
       <c r="Z45" t="inlineStr">
         <is>
-          <t>2025-11-12T07:21:27.509088</t>
+          <t>2025-11-13T06:51:48.424714</t>
         </is>
       </c>
     </row>
@@ -4477,7 +4477,7 @@
       <c r="Y46" t="inlineStr"/>
       <c r="Z46" t="inlineStr">
         <is>
-          <t>2025-11-12T07:21:27.509088</t>
+          <t>2025-11-13T06:51:48.424714</t>
         </is>
       </c>
     </row>
@@ -4563,7 +4563,7 @@
       <c r="Y47" t="inlineStr"/>
       <c r="Z47" t="inlineStr">
         <is>
-          <t>2025-11-12T07:21:27.509088</t>
+          <t>2025-11-13T06:51:48.424714</t>
         </is>
       </c>
     </row>
@@ -4649,7 +4649,7 @@
       <c r="Y48" t="inlineStr"/>
       <c r="Z48" t="inlineStr">
         <is>
-          <t>2025-11-12T07:21:27.509088</t>
+          <t>2025-11-13T06:51:48.424714</t>
         </is>
       </c>
     </row>
@@ -4735,7 +4735,7 @@
       <c r="Y49" t="inlineStr"/>
       <c r="Z49" t="inlineStr">
         <is>
-          <t>2025-11-12T07:21:27.509088</t>
+          <t>2025-11-13T06:51:48.424714</t>
         </is>
       </c>
     </row>
@@ -4821,7 +4821,7 @@
       <c r="Y50" t="inlineStr"/>
       <c r="Z50" t="inlineStr">
         <is>
-          <t>2025-11-12T07:21:27.509088</t>
+          <t>2025-11-13T06:51:48.425713</t>
         </is>
       </c>
     </row>
@@ -4907,7 +4907,7 @@
       <c r="Y51" t="inlineStr"/>
       <c r="Z51" t="inlineStr">
         <is>
-          <t>2025-11-12T07:21:27.509088</t>
+          <t>2025-11-13T06:51:48.425713</t>
         </is>
       </c>
     </row>
@@ -4993,7 +4993,7 @@
       <c r="Y52" t="inlineStr"/>
       <c r="Z52" t="inlineStr">
         <is>
-          <t>2025-11-12T07:21:27.509088</t>
+          <t>2025-11-13T06:51:48.425713</t>
         </is>
       </c>
     </row>
@@ -5079,7 +5079,7 @@
       <c r="Y53" t="inlineStr"/>
       <c r="Z53" t="inlineStr">
         <is>
-          <t>2025-11-12T07:21:27.509088</t>
+          <t>2025-11-13T06:51:48.425713</t>
         </is>
       </c>
     </row>
@@ -5169,7 +5169,7 @@
       </c>
       <c r="Z54" t="inlineStr">
         <is>
-          <t>2025-11-12T07:21:27.509088</t>
+          <t>2025-11-13T06:51:48.425713</t>
         </is>
       </c>
     </row>
@@ -5259,7 +5259,7 @@
       </c>
       <c r="Z55" t="inlineStr">
         <is>
-          <t>2025-11-12T07:21:27.509088</t>
+          <t>2025-11-13T06:51:48.425713</t>
         </is>
       </c>
     </row>
@@ -5345,7 +5345,7 @@
       <c r="Y56" t="inlineStr"/>
       <c r="Z56" t="inlineStr">
         <is>
-          <t>2025-11-12T07:21:27.509088</t>
+          <t>2025-11-13T06:51:48.425713</t>
         </is>
       </c>
     </row>
@@ -5431,7 +5431,7 @@
       <c r="Y57" t="inlineStr"/>
       <c r="Z57" t="inlineStr">
         <is>
-          <t>2025-11-12T07:21:27.509088</t>
+          <t>2025-11-13T06:51:48.425713</t>
         </is>
       </c>
     </row>
@@ -5521,7 +5521,7 @@
       </c>
       <c r="Z58" t="inlineStr">
         <is>
-          <t>2025-11-12T07:21:27.509088</t>
+          <t>2025-11-13T06:51:48.425713</t>
         </is>
       </c>
     </row>
@@ -5607,7 +5607,7 @@
       <c r="Y59" t="inlineStr"/>
       <c r="Z59" t="inlineStr">
         <is>
-          <t>2025-11-12T07:21:27.509088</t>
+          <t>2025-11-13T06:51:48.426714</t>
         </is>
       </c>
     </row>
@@ -5697,7 +5697,7 @@
       </c>
       <c r="Z60" t="inlineStr">
         <is>
-          <t>2025-11-12T07:21:27.509088</t>
+          <t>2025-11-13T06:51:48.426714</t>
         </is>
       </c>
     </row>
@@ -5783,7 +5783,7 @@
       <c r="Y61" t="inlineStr"/>
       <c r="Z61" t="inlineStr">
         <is>
-          <t>2025-11-12T07:21:27.509088</t>
+          <t>2025-11-13T06:51:48.426714</t>
         </is>
       </c>
     </row>
@@ -5869,7 +5869,7 @@
       <c r="Y62" t="inlineStr"/>
       <c r="Z62" t="inlineStr">
         <is>
-          <t>2025-11-12T07:21:27.509088</t>
+          <t>2025-11-13T06:51:48.426714</t>
         </is>
       </c>
     </row>
@@ -5955,7 +5955,7 @@
       <c r="Y63" t="inlineStr"/>
       <c r="Z63" t="inlineStr">
         <is>
-          <t>2025-11-12T07:21:27.509088</t>
+          <t>2025-11-13T06:51:48.426714</t>
         </is>
       </c>
     </row>
@@ -6041,7 +6041,7 @@
       <c r="Y64" t="inlineStr"/>
       <c r="Z64" t="inlineStr">
         <is>
-          <t>2025-11-12T07:21:27.509088</t>
+          <t>2025-11-13T06:51:48.426714</t>
         </is>
       </c>
     </row>
@@ -6127,7 +6127,7 @@
       <c r="Y65" t="inlineStr"/>
       <c r="Z65" t="inlineStr">
         <is>
-          <t>2025-11-12T07:21:27.509088</t>
+          <t>2025-11-13T06:51:48.426714</t>
         </is>
       </c>
     </row>
@@ -6213,7 +6213,7 @@
       <c r="Y66" t="inlineStr"/>
       <c r="Z66" t="inlineStr">
         <is>
-          <t>2025-11-12T07:21:27.509088</t>
+          <t>2025-11-13T06:51:48.426714</t>
         </is>
       </c>
     </row>
@@ -6299,7 +6299,7 @@
       <c r="Y67" t="inlineStr"/>
       <c r="Z67" t="inlineStr">
         <is>
-          <t>2025-11-12T07:21:27.509088</t>
+          <t>2025-11-13T06:51:48.426714</t>
         </is>
       </c>
     </row>
@@ -6389,7 +6389,7 @@
       </c>
       <c r="Z68" t="inlineStr">
         <is>
-          <t>2025-11-12T07:21:27.509088</t>
+          <t>2025-11-13T06:51:48.427714</t>
         </is>
       </c>
     </row>
@@ -6475,7 +6475,7 @@
       <c r="Y69" t="inlineStr"/>
       <c r="Z69" t="inlineStr">
         <is>
-          <t>2025-11-12T07:21:27.509088</t>
+          <t>2025-11-13T06:51:48.427714</t>
         </is>
       </c>
     </row>
@@ -6561,7 +6561,7 @@
       <c r="Y70" t="inlineStr"/>
       <c r="Z70" t="inlineStr">
         <is>
-          <t>2025-11-12T07:21:27.509088</t>
+          <t>2025-11-13T06:51:48.427714</t>
         </is>
       </c>
     </row>
@@ -6647,7 +6647,7 @@
       <c r="Y71" t="inlineStr"/>
       <c r="Z71" t="inlineStr">
         <is>
-          <t>2025-11-12T07:21:27.509088</t>
+          <t>2025-11-13T06:51:48.427714</t>
         </is>
       </c>
     </row>
@@ -6733,7 +6733,7 @@
       <c r="Y72" t="inlineStr"/>
       <c r="Z72" t="inlineStr">
         <is>
-          <t>2025-11-12T07:21:27.524714</t>
+          <t>2025-11-13T06:51:48.427714</t>
         </is>
       </c>
     </row>
@@ -6819,7 +6819,7 @@
       <c r="Y73" t="inlineStr"/>
       <c r="Z73" t="inlineStr">
         <is>
-          <t>2025-11-12T07:21:27.524714</t>
+          <t>2025-11-13T06:51:48.427714</t>
         </is>
       </c>
     </row>
@@ -6905,7 +6905,7 @@
       <c r="Y74" t="inlineStr"/>
       <c r="Z74" t="inlineStr">
         <is>
-          <t>2025-11-12T07:21:27.524714</t>
+          <t>2025-11-13T06:51:48.427714</t>
         </is>
       </c>
     </row>
@@ -6991,7 +6991,7 @@
       <c r="Y75" t="inlineStr"/>
       <c r="Z75" t="inlineStr">
         <is>
-          <t>2025-11-12T07:21:27.537747</t>
+          <t>2025-11-13T06:51:48.427714</t>
         </is>
       </c>
     </row>
@@ -7077,7 +7077,7 @@
       <c r="Y76" t="inlineStr"/>
       <c r="Z76" t="inlineStr">
         <is>
-          <t>2025-11-12T07:21:27.537747</t>
+          <t>2025-11-13T06:51:48.427714</t>
         </is>
       </c>
     </row>
@@ -7163,7 +7163,7 @@
       <c r="Y77" t="inlineStr"/>
       <c r="Z77" t="inlineStr">
         <is>
-          <t>2025-11-12T07:21:27.537747</t>
+          <t>2025-11-13T06:51:48.428714</t>
         </is>
       </c>
     </row>
@@ -7249,7 +7249,7 @@
       <c r="Y78" t="inlineStr"/>
       <c r="Z78" t="inlineStr">
         <is>
-          <t>2025-11-12T07:21:27.537747</t>
+          <t>2025-11-13T06:51:48.428714</t>
         </is>
       </c>
     </row>
@@ -7335,7 +7335,7 @@
       <c r="Y79" t="inlineStr"/>
       <c r="Z79" t="inlineStr">
         <is>
-          <t>2025-11-12T07:21:27.537747</t>
+          <t>2025-11-13T06:51:48.428714</t>
         </is>
       </c>
     </row>
@@ -7425,7 +7425,7 @@
       </c>
       <c r="Z80" t="inlineStr">
         <is>
-          <t>2025-11-12T07:21:27.537747</t>
+          <t>2025-11-13T06:51:48.428714</t>
         </is>
       </c>
     </row>
@@ -7511,7 +7511,7 @@
       <c r="Y81" t="inlineStr"/>
       <c r="Z81" t="inlineStr">
         <is>
-          <t>2025-11-12T07:21:27.537747</t>
+          <t>2025-11-13T06:51:48.428714</t>
         </is>
       </c>
     </row>
@@ -7601,7 +7601,7 @@
       </c>
       <c r="Z82" t="inlineStr">
         <is>
-          <t>2025-11-12T07:21:27.537747</t>
+          <t>2025-11-13T06:51:48.428714</t>
         </is>
       </c>
     </row>
@@ -7691,7 +7691,7 @@
       </c>
       <c r="Z83" t="inlineStr">
         <is>
-          <t>2025-11-12T07:21:27.537747</t>
+          <t>2025-11-13T06:51:48.428714</t>
         </is>
       </c>
     </row>
@@ -7777,7 +7777,7 @@
       <c r="Y84" t="inlineStr"/>
       <c r="Z84" t="inlineStr">
         <is>
-          <t>2025-11-12T07:21:27.537747</t>
+          <t>2025-11-13T06:51:48.428714</t>
         </is>
       </c>
     </row>
@@ -7863,7 +7863,7 @@
       <c r="Y85" t="inlineStr"/>
       <c r="Z85" t="inlineStr">
         <is>
-          <t>2025-11-12T07:21:27.537747</t>
+          <t>2025-11-13T06:51:48.428714</t>
         </is>
       </c>
     </row>
@@ -7953,7 +7953,7 @@
       </c>
       <c r="Z86" t="inlineStr">
         <is>
-          <t>2025-11-12T07:21:27.537747</t>
+          <t>2025-11-13T06:51:48.429714</t>
         </is>
       </c>
     </row>
@@ -8043,7 +8043,7 @@
       </c>
       <c r="Z87" t="inlineStr">
         <is>
-          <t>2025-11-12T07:21:27.537747</t>
+          <t>2025-11-13T06:51:48.429714</t>
         </is>
       </c>
     </row>
@@ -8129,7 +8129,7 @@
       <c r="Y88" t="inlineStr"/>
       <c r="Z88" t="inlineStr">
         <is>
-          <t>2025-11-12T07:21:27.537747</t>
+          <t>2025-11-13T06:51:48.429714</t>
         </is>
       </c>
     </row>
@@ -8215,7 +8215,7 @@
       <c r="Y89" t="inlineStr"/>
       <c r="Z89" t="inlineStr">
         <is>
-          <t>2025-11-12T07:21:27.537747</t>
+          <t>2025-11-13T06:51:48.429714</t>
         </is>
       </c>
     </row>
@@ -8305,7 +8305,7 @@
       </c>
       <c r="Z90" t="inlineStr">
         <is>
-          <t>2025-11-12T07:21:27.537747</t>
+          <t>2025-11-13T06:51:48.429714</t>
         </is>
       </c>
     </row>
@@ -8391,7 +8391,7 @@
       <c r="Y91" t="inlineStr"/>
       <c r="Z91" t="inlineStr">
         <is>
-          <t>2025-11-12T07:21:27.537747</t>
+          <t>2025-11-13T06:51:48.429714</t>
         </is>
       </c>
     </row>
@@ -8477,7 +8477,7 @@
       <c r="Y92" t="inlineStr"/>
       <c r="Z92" t="inlineStr">
         <is>
-          <t>2025-11-12T07:21:27.537747</t>
+          <t>2025-11-13T06:51:48.429714</t>
         </is>
       </c>
     </row>
@@ -8563,7 +8563,7 @@
       <c r="Y93" t="inlineStr"/>
       <c r="Z93" t="inlineStr">
         <is>
-          <t>2025-11-12T07:21:27.537747</t>
+          <t>2025-11-13T06:51:48.429714</t>
         </is>
       </c>
     </row>
@@ -8649,7 +8649,7 @@
       <c r="Y94" t="inlineStr"/>
       <c r="Z94" t="inlineStr">
         <is>
-          <t>2025-11-12T07:21:27.537747</t>
+          <t>2025-11-13T06:51:48.429714</t>
         </is>
       </c>
     </row>
@@ -8735,7 +8735,7 @@
       <c r="Y95" t="inlineStr"/>
       <c r="Z95" t="inlineStr">
         <is>
-          <t>2025-11-12T07:21:27.537747</t>
+          <t>2025-11-13T06:51:48.429714</t>
         </is>
       </c>
     </row>
@@ -8821,7 +8821,7 @@
       <c r="Y96" t="inlineStr"/>
       <c r="Z96" t="inlineStr">
         <is>
-          <t>2025-11-12T07:21:27.537747</t>
+          <t>2025-11-13T06:51:48.430714</t>
         </is>
       </c>
     </row>
@@ -8907,7 +8907,7 @@
       <c r="Y97" t="inlineStr"/>
       <c r="Z97" t="inlineStr">
         <is>
-          <t>2025-11-12T07:21:27.537747</t>
+          <t>2025-11-13T06:51:48.430714</t>
         </is>
       </c>
     </row>
@@ -8997,7 +8997,7 @@
       </c>
       <c r="Z98" t="inlineStr">
         <is>
-          <t>2025-11-12T07:21:27.537747</t>
+          <t>2025-11-13T06:51:48.430714</t>
         </is>
       </c>
     </row>
@@ -9083,7 +9083,7 @@
       <c r="Y99" t="inlineStr"/>
       <c r="Z99" t="inlineStr">
         <is>
-          <t>2025-11-12T07:21:27.537747</t>
+          <t>2025-11-13T06:51:48.430714</t>
         </is>
       </c>
     </row>
@@ -9169,7 +9169,7 @@
       <c r="Y100" t="inlineStr"/>
       <c r="Z100" t="inlineStr">
         <is>
-          <t>2025-11-12T07:21:27.537747</t>
+          <t>2025-11-13T06:51:48.430714</t>
         </is>
       </c>
     </row>
@@ -9255,7 +9255,7 @@
       <c r="Y101" t="inlineStr"/>
       <c r="Z101" t="inlineStr">
         <is>
-          <t>2025-11-12T07:21:27.566074</t>
+          <t>2025-11-13T06:51:48.430714</t>
         </is>
       </c>
     </row>
@@ -9341,7 +9341,7 @@
       <c r="Y102" t="inlineStr"/>
       <c r="Z102" t="inlineStr">
         <is>
-          <t>2025-11-12T07:21:27.566074</t>
+          <t>2025-11-13T06:51:48.431715</t>
         </is>
       </c>
     </row>
@@ -9427,7 +9427,7 @@
       <c r="Y103" t="inlineStr"/>
       <c r="Z103" t="inlineStr">
         <is>
-          <t>2025-11-12T07:21:27.567078</t>
+          <t>2025-11-13T06:51:48.431715</t>
         </is>
       </c>
     </row>
@@ -9513,7 +9513,7 @@
       <c r="Y104" t="inlineStr"/>
       <c r="Z104" t="inlineStr">
         <is>
-          <t>2025-11-12T07:21:27.567078</t>
+          <t>2025-11-13T06:51:48.431715</t>
         </is>
       </c>
     </row>
@@ -9599,7 +9599,7 @@
       <c r="Y105" t="inlineStr"/>
       <c r="Z105" t="inlineStr">
         <is>
-          <t>2025-11-12T07:21:27.568075</t>
+          <t>2025-11-13T06:51:48.431715</t>
         </is>
       </c>
     </row>
@@ -9685,7 +9685,7 @@
       <c r="Y106" t="inlineStr"/>
       <c r="Z106" t="inlineStr">
         <is>
-          <t>2025-11-12T07:21:27.569081</t>
+          <t>2025-11-13T06:51:48.432563</t>
         </is>
       </c>
     </row>
@@ -9771,7 +9771,7 @@
       <c r="Y107" t="inlineStr"/>
       <c r="Z107" t="inlineStr">
         <is>
-          <t>2025-11-12T07:21:27.570074</t>
+          <t>2025-11-13T06:51:48.432563</t>
         </is>
       </c>
     </row>
@@ -9857,7 +9857,7 @@
       <c r="Y108" t="inlineStr"/>
       <c r="Z108" t="inlineStr">
         <is>
-          <t>2025-11-12T07:21:27.570074</t>
+          <t>2025-11-13T06:51:48.432563</t>
         </is>
       </c>
     </row>
@@ -9943,7 +9943,7 @@
       <c r="Y109" t="inlineStr"/>
       <c r="Z109" t="inlineStr">
         <is>
-          <t>2025-11-12T07:21:27.571081</t>
+          <t>2025-11-13T06:51:48.432563</t>
         </is>
       </c>
     </row>
@@ -10029,7 +10029,7 @@
       <c r="Y110" t="inlineStr"/>
       <c r="Z110" t="inlineStr">
         <is>
-          <t>2025-11-12T07:21:27.578071</t>
+          <t>2025-11-13T06:51:48.433568</t>
         </is>
       </c>
     </row>
@@ -10115,7 +10115,7 @@
       <c r="Y111" t="inlineStr"/>
       <c r="Z111" t="inlineStr">
         <is>
-          <t>2025-11-12T07:21:27.582077</t>
+          <t>2025-11-13T06:51:48.433568</t>
         </is>
       </c>
     </row>
@@ -10201,7 +10201,7 @@
       <c r="Y112" t="inlineStr"/>
       <c r="Z112" t="inlineStr">
         <is>
-          <t>2025-11-12T07:21:27.583080</t>
+          <t>2025-11-13T06:51:48.433568</t>
         </is>
       </c>
     </row>
@@ -10291,7 +10291,7 @@
       </c>
       <c r="Z113" t="inlineStr">
         <is>
-          <t>2025-11-12T07:21:27.584840</t>
+          <t>2025-11-13T06:51:48.433568</t>
         </is>
       </c>
     </row>
@@ -10377,7 +10377,7 @@
       <c r="Y114" t="inlineStr"/>
       <c r="Z114" t="inlineStr">
         <is>
-          <t>2025-11-12T07:21:27.584840</t>
+          <t>2025-11-13T06:51:48.433568</t>
         </is>
       </c>
     </row>
@@ -10467,7 +10467,7 @@
       </c>
       <c r="Z115" t="inlineStr">
         <is>
-          <t>2025-11-12T07:21:27.585837</t>
+          <t>2025-11-13T06:51:48.433568</t>
         </is>
       </c>
     </row>
@@ -10553,7 +10553,7 @@
       <c r="Y116" t="inlineStr"/>
       <c r="Z116" t="inlineStr">
         <is>
-          <t>2025-11-12T07:21:27.585837</t>
+          <t>2025-11-13T06:51:48.434568</t>
         </is>
       </c>
     </row>
@@ -10639,7 +10639,7 @@
       <c r="Y117" t="inlineStr"/>
       <c r="Z117" t="inlineStr">
         <is>
-          <t>2025-11-12T07:21:27.586840</t>
+          <t>2025-11-13T06:51:48.434568</t>
         </is>
       </c>
     </row>
@@ -10725,7 +10725,7 @@
       <c r="Y118" t="inlineStr"/>
       <c r="Z118" t="inlineStr">
         <is>
-          <t>2025-11-12T07:21:27.586840</t>
+          <t>2025-11-13T06:51:48.434568</t>
         </is>
       </c>
     </row>
@@ -10811,7 +10811,7 @@
       <c r="Y119" t="inlineStr"/>
       <c r="Z119" t="inlineStr">
         <is>
-          <t>2025-11-12T07:21:27.587838</t>
+          <t>2025-11-13T06:51:48.434568</t>
         </is>
       </c>
     </row>
@@ -10897,7 +10897,7 @@
       <c r="Y120" t="inlineStr"/>
       <c r="Z120" t="inlineStr">
         <is>
-          <t>2025-11-12T07:21:27.587838</t>
+          <t>2025-11-13T06:51:48.434568</t>
         </is>
       </c>
     </row>
@@ -10987,7 +10987,7 @@
       </c>
       <c r="Z121" t="inlineStr">
         <is>
-          <t>2025-11-12T07:21:27.588832</t>
+          <t>2025-11-13T06:51:48.435565</t>
         </is>
       </c>
     </row>
@@ -11077,7 +11077,7 @@
       </c>
       <c r="Z122" t="inlineStr">
         <is>
-          <t>2025-11-12T07:21:27.588832</t>
+          <t>2025-11-13T06:51:48.435565</t>
         </is>
       </c>
     </row>
@@ -11163,7 +11163,7 @@
       <c r="Y123" t="inlineStr"/>
       <c r="Z123" t="inlineStr">
         <is>
-          <t>2025-11-12T07:21:27.588832</t>
+          <t>2025-11-13T06:51:48.435565</t>
         </is>
       </c>
     </row>
@@ -11249,7 +11249,7 @@
       <c r="Y124" t="inlineStr"/>
       <c r="Z124" t="inlineStr">
         <is>
-          <t>2025-11-12T07:21:27.589831</t>
+          <t>2025-11-13T06:51:48.435565</t>
         </is>
       </c>
     </row>
@@ -11335,7 +11335,7 @@
       <c r="Y125" t="inlineStr"/>
       <c r="Z125" t="inlineStr">
         <is>
-          <t>2025-11-12T07:21:27.589831</t>
+          <t>2025-11-13T06:51:48.435565</t>
         </is>
       </c>
     </row>
@@ -11425,7 +11425,7 @@
       </c>
       <c r="Z126" t="inlineStr">
         <is>
-          <t>2025-11-12T07:21:27.589831</t>
+          <t>2025-11-13T06:51:48.436564</t>
         </is>
       </c>
     </row>
@@ -11511,7 +11511,7 @@
       <c r="Y127" t="inlineStr"/>
       <c r="Z127" t="inlineStr">
         <is>
-          <t>2025-11-12T07:21:27.590827</t>
+          <t>2025-11-13T06:51:48.436564</t>
         </is>
       </c>
     </row>
@@ -11597,7 +11597,7 @@
       <c r="Y128" t="inlineStr"/>
       <c r="Z128" t="inlineStr">
         <is>
-          <t>2025-11-12T07:21:27.590827</t>
+          <t>2025-11-13T06:51:48.436564</t>
         </is>
       </c>
     </row>
@@ -11683,7 +11683,7 @@
       <c r="Y129" t="inlineStr"/>
       <c r="Z129" t="inlineStr">
         <is>
-          <t>2025-11-12T07:21:27.590827</t>
+          <t>2025-11-13T06:51:48.436564</t>
         </is>
       </c>
     </row>
@@ -11769,7 +11769,7 @@
       <c r="Y130" t="inlineStr"/>
       <c r="Z130" t="inlineStr">
         <is>
-          <t>2025-11-12T07:21:27.591827</t>
+          <t>2025-11-13T06:51:48.436564</t>
         </is>
       </c>
     </row>
@@ -11855,7 +11855,7 @@
       <c r="Y131" t="inlineStr"/>
       <c r="Z131" t="inlineStr">
         <is>
-          <t>2025-11-12T07:21:27.591827</t>
+          <t>2025-11-13T06:51:48.436564</t>
         </is>
       </c>
     </row>
@@ -11941,7 +11941,7 @@
       <c r="Y132" t="inlineStr"/>
       <c r="Z132" t="inlineStr">
         <is>
-          <t>2025-11-12T07:21:27.591827</t>
+          <t>2025-11-13T06:51:48.437564</t>
         </is>
       </c>
     </row>
@@ -12027,7 +12027,7 @@
       <c r="Y133" t="inlineStr"/>
       <c r="Z133" t="inlineStr">
         <is>
-          <t>2025-11-12T07:21:27.592834</t>
+          <t>2025-11-13T06:51:48.437564</t>
         </is>
       </c>
     </row>
@@ -12113,7 +12113,7 @@
       <c r="Y134" t="inlineStr"/>
       <c r="Z134" t="inlineStr">
         <is>
-          <t>2025-11-12T07:21:27.592834</t>
+          <t>2025-11-13T06:51:48.437564</t>
         </is>
       </c>
     </row>
@@ -12203,7 +12203,7 @@
       </c>
       <c r="Z135" t="inlineStr">
         <is>
-          <t>2025-11-12T07:21:27.592834</t>
+          <t>2025-11-13T06:51:48.437564</t>
         </is>
       </c>
     </row>
@@ -12289,7 +12289,7 @@
       <c r="Y136" t="inlineStr"/>
       <c r="Z136" t="inlineStr">
         <is>
-          <t>2025-11-12T07:21:27.593831</t>
+          <t>2025-11-13T06:51:48.437564</t>
         </is>
       </c>
     </row>
@@ -12379,7 +12379,7 @@
       </c>
       <c r="Z137" t="inlineStr">
         <is>
-          <t>2025-11-12T07:21:27.593831</t>
+          <t>2025-11-13T06:51:48.438564</t>
         </is>
       </c>
     </row>
@@ -12465,7 +12465,7 @@
       <c r="Y138" t="inlineStr"/>
       <c r="Z138" t="inlineStr">
         <is>
-          <t>2025-11-12T07:21:27.593831</t>
+          <t>2025-11-13T06:51:48.438564</t>
         </is>
       </c>
     </row>
@@ -12551,7 +12551,7 @@
       <c r="Y139" t="inlineStr"/>
       <c r="Z139" t="inlineStr">
         <is>
-          <t>2025-11-12T07:21:27.594827</t>
+          <t>2025-11-13T06:51:48.438564</t>
         </is>
       </c>
     </row>
@@ -12641,7 +12641,7 @@
       </c>
       <c r="Z140" t="inlineStr">
         <is>
-          <t>2025-11-12T07:21:27.594827</t>
+          <t>2025-11-13T06:51:48.438564</t>
         </is>
       </c>
     </row>
@@ -12727,7 +12727,7 @@
       <c r="Y141" t="inlineStr"/>
       <c r="Z141" t="inlineStr">
         <is>
-          <t>2025-11-12T07:21:27.595832</t>
+          <t>2025-11-13T06:51:48.438564</t>
         </is>
       </c>
     </row>
@@ -12813,7 +12813,7 @@
       <c r="Y142" t="inlineStr"/>
       <c r="Z142" t="inlineStr">
         <is>
-          <t>2025-11-12T07:21:27.597834</t>
+          <t>2025-11-13T06:51:48.439563</t>
         </is>
       </c>
     </row>
@@ -12903,7 +12903,7 @@
       </c>
       <c r="Z143" t="inlineStr">
         <is>
-          <t>2025-11-12T07:21:27.597834</t>
+          <t>2025-11-13T06:51:48.439563</t>
         </is>
       </c>
     </row>
@@ -12989,7 +12989,7 @@
       <c r="Y144" t="inlineStr"/>
       <c r="Z144" t="inlineStr">
         <is>
-          <t>2025-11-12T07:21:27.597834</t>
+          <t>2025-11-13T06:51:48.439563</t>
         </is>
       </c>
     </row>
@@ -13075,7 +13075,7 @@
       <c r="Y145" t="inlineStr"/>
       <c r="Z145" t="inlineStr">
         <is>
-          <t>2025-11-12T07:21:27.598835</t>
+          <t>2025-11-13T06:51:48.439563</t>
         </is>
       </c>
     </row>
@@ -13161,7 +13161,7 @@
       <c r="Y146" t="inlineStr"/>
       <c r="Z146" t="inlineStr">
         <is>
-          <t>2025-11-12T07:21:27.598835</t>
+          <t>2025-11-13T06:51:48.439563</t>
         </is>
       </c>
     </row>
@@ -13247,7 +13247,7 @@
       <c r="Y147" t="inlineStr"/>
       <c r="Z147" t="inlineStr">
         <is>
-          <t>2025-11-12T07:21:27.600411</t>
+          <t>2025-11-13T06:51:48.439563</t>
         </is>
       </c>
     </row>
@@ -13333,7 +13333,7 @@
       <c r="Y148" t="inlineStr"/>
       <c r="Z148" t="inlineStr">
         <is>
-          <t>2025-11-12T07:21:27.601416</t>
+          <t>2025-11-13T06:51:48.440565</t>
         </is>
       </c>
     </row>
@@ -13419,7 +13419,7 @@
       <c r="Y149" t="inlineStr"/>
       <c r="Z149" t="inlineStr">
         <is>
-          <t>2025-11-12T07:21:27.601416</t>
+          <t>2025-11-13T06:51:48.440565</t>
         </is>
       </c>
     </row>
@@ -13505,7 +13505,7 @@
       <c r="Y150" t="inlineStr"/>
       <c r="Z150" t="inlineStr">
         <is>
-          <t>2025-11-12T07:21:27.602415</t>
+          <t>2025-11-13T06:51:48.440565</t>
         </is>
       </c>
     </row>
@@ -13595,7 +13595,7 @@
       </c>
       <c r="Z151" t="inlineStr">
         <is>
-          <t>2025-11-12T07:21:27.602415</t>
+          <t>2025-11-13T06:51:48.440565</t>
         </is>
       </c>
     </row>
@@ -13681,7 +13681,7 @@
       <c r="Y152" t="inlineStr"/>
       <c r="Z152" t="inlineStr">
         <is>
-          <t>2025-11-12T07:21:27.603415</t>
+          <t>2025-11-13T06:51:48.440565</t>
         </is>
       </c>
     </row>
@@ -13771,7 +13771,7 @@
       </c>
       <c r="Z153" t="inlineStr">
         <is>
-          <t>2025-11-12T07:21:27.603415</t>
+          <t>2025-11-13T06:51:48.440565</t>
         </is>
       </c>
     </row>
@@ -13861,7 +13861,7 @@
       </c>
       <c r="Z154" t="inlineStr">
         <is>
-          <t>2025-11-12T07:21:27.603415</t>
+          <t>2025-11-13T06:51:48.441567</t>
         </is>
       </c>
     </row>
@@ -13947,7 +13947,7 @@
       <c r="Y155" t="inlineStr"/>
       <c r="Z155" t="inlineStr">
         <is>
-          <t>2025-11-12T07:21:27.605048</t>
+          <t>2025-11-13T06:51:48.441567</t>
         </is>
       </c>
     </row>
@@ -14033,7 +14033,7 @@
       <c r="Y156" t="inlineStr"/>
       <c r="Z156" t="inlineStr">
         <is>
-          <t>2025-11-12T07:21:27.605048</t>
+          <t>2025-11-13T06:51:48.441567</t>
         </is>
       </c>
     </row>
@@ -14123,7 +14123,7 @@
       </c>
       <c r="Z157" t="inlineStr">
         <is>
-          <t>2025-11-12T07:21:27.606070</t>
+          <t>2025-11-13T06:51:48.441567</t>
         </is>
       </c>
     </row>
@@ -14209,7 +14209,7 @@
       <c r="Y158" t="inlineStr"/>
       <c r="Z158" t="inlineStr">
         <is>
-          <t>2025-11-12T07:21:27.606070</t>
+          <t>2025-11-13T06:51:48.441567</t>
         </is>
       </c>
     </row>
@@ -14295,7 +14295,7 @@
       <c r="Y159" t="inlineStr"/>
       <c r="Z159" t="inlineStr">
         <is>
-          <t>2025-11-12T07:21:27.607071</t>
+          <t>2025-11-13T06:51:48.441567</t>
         </is>
       </c>
     </row>
@@ -14381,7 +14381,7 @@
       <c r="Y160" t="inlineStr"/>
       <c r="Z160" t="inlineStr">
         <is>
-          <t>2025-11-12T07:21:27.607071</t>
+          <t>2025-11-13T06:51:48.441567</t>
         </is>
       </c>
     </row>
@@ -14471,7 +14471,7 @@
       </c>
       <c r="Z161" t="inlineStr">
         <is>
-          <t>2025-11-12T07:21:27.608072</t>
+          <t>2025-11-13T06:51:48.442567</t>
         </is>
       </c>
     </row>
@@ -14557,7 +14557,7 @@
       <c r="Y162" t="inlineStr"/>
       <c r="Z162" t="inlineStr">
         <is>
-          <t>2025-11-12T07:21:27.608072</t>
+          <t>2025-11-13T06:51:48.442567</t>
         </is>
       </c>
     </row>
@@ -14643,7 +14643,7 @@
       <c r="Y163" t="inlineStr"/>
       <c r="Z163" t="inlineStr">
         <is>
-          <t>2025-11-12T07:21:27.609076</t>
+          <t>2025-11-13T06:51:48.442567</t>
         </is>
       </c>
     </row>
@@ -14729,7 +14729,7 @@
       <c r="Y164" t="inlineStr"/>
       <c r="Z164" t="inlineStr">
         <is>
-          <t>2025-11-12T07:21:27.609076</t>
+          <t>2025-11-13T06:51:48.442567</t>
         </is>
       </c>
     </row>
@@ -14815,7 +14815,7 @@
       <c r="Y165" t="inlineStr"/>
       <c r="Z165" t="inlineStr">
         <is>
-          <t>2025-11-12T07:21:27.610073</t>
+          <t>2025-11-13T06:51:48.442567</t>
         </is>
       </c>
     </row>
@@ -14905,7 +14905,7 @@
       </c>
       <c r="Z166" t="inlineStr">
         <is>
-          <t>2025-11-12T07:21:27.610073</t>
+          <t>2025-11-13T06:51:48.442567</t>
         </is>
       </c>
     </row>
@@ -14991,7 +14991,7 @@
       <c r="Y167" t="inlineStr"/>
       <c r="Z167" t="inlineStr">
         <is>
-          <t>2025-11-12T07:21:27.610073</t>
+          <t>2025-11-13T06:51:48.442567</t>
         </is>
       </c>
     </row>
@@ -15077,7 +15077,7 @@
       <c r="Y168" t="inlineStr"/>
       <c r="Z168" t="inlineStr">
         <is>
-          <t>2025-11-12T07:21:27.611179</t>
+          <t>2025-11-13T06:51:48.442567</t>
         </is>
       </c>
     </row>
@@ -15163,7 +15163,7 @@
       <c r="Y169" t="inlineStr"/>
       <c r="Z169" t="inlineStr">
         <is>
-          <t>2025-11-12T07:21:27.611179</t>
+          <t>2025-11-13T06:51:48.442567</t>
         </is>
       </c>
     </row>
@@ -15253,7 +15253,7 @@
       </c>
       <c r="Z170" t="inlineStr">
         <is>
-          <t>2025-11-12T07:21:27.615183</t>
+          <t>2025-11-13T06:51:48.443565</t>
         </is>
       </c>
     </row>
@@ -15339,7 +15339,7 @@
       <c r="Y171" t="inlineStr"/>
       <c r="Z171" t="inlineStr">
         <is>
-          <t>2025-11-12T07:21:27.616179</t>
+          <t>2025-11-13T06:51:48.443565</t>
         </is>
       </c>
     </row>
